--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6739D71-A1FB-4C41-8AF3-563C50492CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C233A46-B682-4B20-A23A-053A143FEAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CF21CC3-5AF6-4FA2-82C3-DFF387CDE63E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CF21CC3-5AF6-4FA2-82C3-DFF387CDE63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -398,62 +398,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>Total Runtime vs Implementation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1242,7 +1187,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1330,67 +1275,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>2 Layer</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-              <a:t> Fused Tile Size</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2003,7 +1888,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2091,63 +1976,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>3 Layer Fused Tile Size</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2723,7 +2552,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4862,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDBDDC9-7B8D-436A-B1E1-34B89AEF7D82}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A14" zoomScale="102" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -27896,8 +27725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EBC357-9D52-45DC-AF97-198E10C12713}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="102" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C233A46-B682-4B20-A23A-053A143FEAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB28B8-70E0-4AF1-AEFD-5C1DB258D263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CF21CC3-5AF6-4FA2-82C3-DFF387CDE63E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CF21CC3-5AF6-4FA2-82C3-DFF387CDE63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="83">
   <si>
     <t>Accuracy</t>
   </si>
@@ -234,9 +234,6 @@
     <t>1x1, 1x1</t>
   </si>
   <si>
-    <t>Buffer Size</t>
-  </si>
-  <si>
     <t>Threads/Block</t>
   </si>
   <si>
@@ -286,6 +283,45 @@
   </si>
   <si>
     <t>L1+L2+L3 Time</t>
+  </si>
+  <si>
+    <t>Cuda Total</t>
+  </si>
+  <si>
+    <t>Total Speedup</t>
+  </si>
+  <si>
+    <t>Buffer Size (floats)</t>
+  </si>
+  <si>
+    <t>2x2 Layer Total</t>
+  </si>
+  <si>
+    <t>2x2 Layer (L1-L4)</t>
+  </si>
+  <si>
+    <t>Cuda (L1-L4)</t>
+  </si>
+  <si>
+    <t>Speedup (L1-L4)</t>
+  </si>
+  <si>
+    <t>Layer Size</t>
+  </si>
+  <si>
+    <t>Output Channel</t>
+  </si>
+  <si>
+    <t>Network Size (Layer Dimension)</t>
+  </si>
+  <si>
+    <t>L1+L2+L3+L4</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Network Size (Output Channel)</t>
   </si>
 </sst>
 </file>
@@ -353,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -365,6 +401,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1312,19 +1349,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5x5</c:v>
+                  <c:v>1x1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>2x2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3x3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2x2</c:v>
+                  <c:v>4x4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1x1</c:v>
+                  <c:v>5x5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1336,19 +1373,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>864</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,7 +1405,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Buffer Size</c:v>
+                  <c:v>Buffer Size (floats)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1389,19 +1426,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5x5</c:v>
+                  <c:v>1x1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>2x2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3x3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2x2</c:v>
+                  <c:v>4x4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1x1</c:v>
+                  <c:v>5x5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1413,19 +1450,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1520</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1052</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>380</c:v>
+                  <c:v>1052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>176</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,19 +1520,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5x5</c:v>
+                  <c:v>1x1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>2x2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3x3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2x2</c:v>
+                  <c:v>4x4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1x1</c:v>
+                  <c:v>5x5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1507,19 +1544,19 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.17604820000000007</c:v>
+                  <c:v>0.19847020000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1592296</c:v>
+                  <c:v>0.15841139999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.15845610000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15841139999999998</c:v>
+                  <c:v>0.1592296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19847020000000004</c:v>
+                  <c:v>0.17604820000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1711,7 +1748,6 @@
         <c:axId val="519310863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1874,6 +1910,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="519310863"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2013,13 +2050,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>1x1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2x2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1x1</c:v>
+                  <c:v>3x3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2031,13 +2068,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>864</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>384</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,7 +2094,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Buffer Size</c:v>
+                  <c:v>Buffer Size (floats)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2078,13 +2115,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>1x1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2x2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1x1</c:v>
+                  <c:v>3x3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2096,13 +2133,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1592</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>680</c:v>
+                  <c:v>1592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2160,13 +2197,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>1x1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2x2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1x1</c:v>
+                  <c:v>3x3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2178,13 +2215,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.30916800000000011</c:v>
+                  <c:v>0.50137980000000015</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.43985040000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50137980000000015</c:v>
+                  <c:v>0.30916800000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2538,11 +2575,1895 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="410136543"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2892</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$W$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$W$2:$X$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.298007824695895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3855659087803036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C10-422C-8946-93E30C21209E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3828</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$W$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$W$3:$X$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.288686336140652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.392906041383186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C10-422C-8946-93E30C21209E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$V$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6860</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$W$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$W$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2654530070827132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3779430135648592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4C10-422C-8946-93E30C21209E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8804</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$W$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$W$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2473080982631304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3740924721819407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4C10-422C-8946-93E30C21209E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$W$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$W$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2459081299808938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3899659160878814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4C10-422C-8946-93E30C21209E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$V$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13508</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$W$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$W$7:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2222483045029204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3721919355940064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4C10-422C-8946-93E30C21209E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$V$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16268</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$W$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$W$8:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.1881449254186229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3320747634790151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-4C10-422C-8946-93E30C21209E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$W$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$W$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.1531664163634929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2859636967638808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-4C10-422C-8946-93E30C21209E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$V$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22604</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$W$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$W$10:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.124596333703592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2438978922469508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-4C10-422C-8946-93E30C21209E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1446506239"/>
+        <c:axId val="1446507199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1446506239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1446507199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1446507199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1446506239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$2:$AC$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2645969199830274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3824678442674987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$3:$AC$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2681586092623915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3868551902055142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$4:$AC$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2650920286793603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3768313401564343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$5:$AC$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2579245247608712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3672169048254155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$6:$AC$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2533641665680739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3560591178543775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$7:$AC$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.263076258744279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3656299589887708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$8:$AC$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.240945935236085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.332908767319116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$9:$AC$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2559636129659724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3517615614682397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$10:$AC$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2414227774356192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3296383813168362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$11:$AC$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2522679312198608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3427620672362026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$12:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2390191964395958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3227686144529762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$13:$AC$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0593490838190054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0753924742293273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$AA$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$AB$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L1+L2+L3+L4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$AB$14:$AC$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0510473116514296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0637308378662755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-7505-4348-B138-E86207C15F07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1446506719"/>
+        <c:axId val="1446511519"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1446506719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1446511519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1446511519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1446506719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2707,6 +4628,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4257,6 +6258,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4299,16 +7306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>665547</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20088</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9225</xdr:rowOff>
+      <xdr:rowOff>9224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>615395</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>489</xdr:rowOff>
+      <xdr:colOff>650366</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4336,15 +7343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>16710</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5347</xdr:rowOff>
+      <xdr:colOff>25675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>184640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>489061</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>645459</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4364,6 +7371,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>654422</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>643962</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDB9B4D-251B-E8EE-E8FE-C5FE65458EA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>618564</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>126401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D806BB-CB0E-A743-C9A2-1F0BBEA2556D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4689,21 +7768,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDBDDC9-7B8D-436A-B1E1-34B89AEF7D82}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="102" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="71" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="11.19921875" customWidth="1"/>
-    <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.796875" customWidth="1"/>
+    <col min="15" max="15" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4732,7 +7820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -4768,8 +7856,13 @@
         <f>AVERAGE('Conventional CPU'!H:H)</f>
         <v>1.2300000000000012E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -4805,16 +7898,25 @@
         <f>AVERAGE('Conventional Cuda'!H:H)</f>
         <v>1.2907600000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="E4" s="2"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -4837,8 +7939,9 @@
       <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -4876,8 +7979,9 @@
         <f>AVERAGE('2 Layer (5x5)'!G:G)</f>
         <v>1.3202199999999996E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -4916,7 +8020,7 @@
         <v>1.2006199999999993E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:17">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -4955,7 +8059,7 @@
         <v>1.2117500000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -4994,7 +8098,7 @@
         <v>1.4115600000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -5033,15 +8137,15 @@
         <v>1.2390699999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
@@ -5062,7 +8166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -5097,7 +8201,7 @@
         <v>1.2468599999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -5132,7 +8236,7 @@
         <v>1.2581299999999991E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -5172,10 +8276,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
@@ -5229,16 +8333,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -6285,11 +9389,649 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="G47" s="2"/>
+      <c r="A47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3">
+        <f>784+4704+10000+5000+2116</f>
+        <v>22604</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1.0045458999999999</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.56583919999999999</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.89325019999999955</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.45489200000000007</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" ref="F48" si="0">B48/D48</f>
+        <v>1.124596333703592</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" ref="G48" si="1">C48/E48</f>
+        <v>1.2438978922469508</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3">
+        <f>784+4056+8464+4232+1764</f>
+        <v>19300</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.94660109999999986</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.56517139999999988</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.8208711999999998</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.43949250000000001</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" ref="F49" si="2">B49/D49</f>
+        <v>1.1531664163634929</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" ref="G49" si="3">C49/E49</f>
+        <v>1.2859636967638808</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="3">
+        <f>784+3456+7056+3528+1444</f>
+        <v>16268</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.89935239999999983</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.57136149999999997</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.75693830000000051</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.42892599999999992</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" ref="F50" si="4">B50/D50</f>
+        <v>1.1881449254186229</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" ref="G50" si="5">C50/E50</f>
+        <v>1.3320747634790151</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="3">
+        <f>784+2904+5776+2888+1156</f>
+        <v>13508</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0.84402320000000031</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.56668810000000003</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.69054969999999993</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.41298020000000013</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" ref="F51" si="6">B51/D51</f>
+        <v>1.2222483045029204</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" ref="G51" si="7">C51/E51</f>
+        <v>1.3721919355940064</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="3">
+        <f>784+2400+4624+2312+900</f>
+        <v>11020</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.78890229999999983</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.55645270000000002</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.63319459999999983</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.40033549999999996</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" ref="F52" si="8">B52/D52</f>
+        <v>1.2459081299808938</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" ref="G52" si="9">C52/E52</f>
+        <v>1.3899659160878814</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="3">
+        <f>784+1944+3600+1800+676</f>
+        <v>8804</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.62785860000000016</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.45824390000000004</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.50337089999999984</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.33348840000000007</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" ref="F53" si="10">B53/D53</f>
+        <v>1.2473080982631304</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" ref="G53" si="11">C53/E53</f>
+        <v>1.3740924721819407</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="3">
+        <f>784+1536+2704+1352+484</f>
+        <v>6860</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.69546449999999993</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.53056179999999986</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.54957750000000005</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.38503900000000002</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" ref="F54" si="12">B54/D54</f>
+        <v>1.2654530070827132</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" ref="G54" si="13">C54/E54</f>
+        <v>1.3779430135648592</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="3">
+        <f>784+1176+576+968+324</f>
+        <v>3828</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.66636539999999977</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.52749310000000005</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.51708889999999985</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.37869969999999997</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" ref="F55" si="14">B55/D55</f>
+        <v>1.288686336140652</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" ref="G55" si="15">C55/E55</f>
+        <v>1.392906041383186</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="3">
+        <f>784+864+400+648+196</f>
+        <v>2892</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.63816360000000005</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.52415030000000007</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.49164850000000021</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.37829330000000005</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" ref="F56" si="16">B56/D56</f>
+        <v>1.298007824695895</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" ref="G56" si="17">C56/E56</f>
+        <v>1.3855659087803036</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="3">
+        <v>16</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.81435440000000014</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.64842329999999992</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.7748027999999999</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.60957460000000019</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" ref="F59" si="18">B59/D59</f>
+        <v>1.0510473116514296</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" ref="G59" si="19">C59/E59</f>
+        <v>1.0637308378662755</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="3">
+        <v>15</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.79759239999999954</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0.63278330000000005</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.75290799999999991</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.58842079999999997</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" ref="F60:F63" si="20">B60/D60</f>
+        <v>1.0593490838190054</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" ref="G60:G63" si="21">C60/E60</f>
+        <v>1.0753924742293273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="3">
+        <v>14</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.7877040999999998</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0.62201619999999991</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.63574810000000004</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.47023809999999988</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="20"/>
+        <v>1.2390191964395958</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="21"/>
+        <v>1.3227686144529762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="3">
+        <v>13</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0.78034449999999989</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0.61314410000000008</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.62314499999999984</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0.45662900000000006</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" ref="F62:F71" si="22">B62/D62</f>
+        <v>1.2522679312198608</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" ref="G62:G71" si="23">C62/E62</f>
+        <v>1.3427620672362026</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="3">
+        <v>12</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0.76797020000000027</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0.6011339</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.61862100000000009</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0.45210329999999999</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="22"/>
+        <v>1.2414227774356192</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="23"/>
+        <v>1.3296383813168362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="3">
+        <v>11</v>
+      </c>
+      <c r="B64" s="6">
+        <v>0.75365339999999992</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0.58809360000000011</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.60005989999999987</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.43505719999999992</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" si="22"/>
+        <v>1.2559636129659724</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="23"/>
+        <v>1.3517615614682397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="3">
+        <v>10</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0.74062519999999987</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0.57473079999999999</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.59682310000000027</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.4311854</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="22"/>
+        <v>1.240945935236085</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="23"/>
+        <v>1.332908767319116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3">
+        <v>9</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0.73125800000000007</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0.56488300000000002</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.57894999999999985</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.41364279999999976</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="22"/>
+        <v>1.263076258744279</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="23"/>
+        <v>1.3656299589887708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3">
+        <v>8</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0.71614069999999996</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0.55155439999999989</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.57137480000000007</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0.40673330000000002</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="22"/>
+        <v>1.2533641665680739</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="23"/>
+        <v>1.3560591178543775</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3">
+        <v>7</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0.70378549999999973</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0.53921229999999998</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.5594815000000003</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0.39438679999999987</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="22"/>
+        <v>1.2579245247608712</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="23"/>
+        <v>1.3672169048254155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>6</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.69560440000000023</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0.52952299999999997</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.54984490000000019</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0.38459540000000003</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="22"/>
+        <v>1.2650920286793603</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="23"/>
+        <v>1.3768313401564343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="10">
+        <v>5</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.68522299999999969</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0.51973480000000005</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0.54032910000000001</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0.37475780000000003</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" si="22"/>
+        <v>1.2681586092623915</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="23"/>
+        <v>1.3868551902055142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="10">
+        <v>4</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0.67385400000000006</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0.50787500000000008</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.53286070000000008</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0.36736839999999993</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" si="22"/>
+        <v>1.2645969199830274</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="23"/>
+        <v>1.3824678442674987</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27723,10 +31465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EBC357-9D52-45DC-AF97-198E10C12713}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="102" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="V5" zoomScale="85" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -27737,17 +31479,23 @@
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:29">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -27767,35 +31515,53 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>61</v>
+      <c r="H1" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="V1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -27828,39 +31594,62 @@
         <v>6.0869999999935143E-4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3">
-        <f>Summary!B6</f>
-        <v>864</v>
+        <f>Summary!B10</f>
+        <v>96</v>
       </c>
       <c r="L2" s="3">
-        <f>Summary!C6</f>
-        <v>1520</v>
+        <f>Summary!C10</f>
+        <v>176</v>
       </c>
       <c r="M2" s="6">
-        <f>Summary!F6</f>
-        <v>0.17604820000000007</v>
+        <f>Summary!F10</f>
+        <v>0.19847020000000004</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="3">
-        <f>Summary!B13</f>
-        <v>864</v>
+        <f>Summary!B15</f>
+        <v>384</v>
       </c>
       <c r="R2" s="3">
-        <f>Summary!C13</f>
-        <v>1592</v>
+        <f>Summary!C15</f>
+        <v>680</v>
       </c>
       <c r="S2" s="3">
-        <f>Summary!F13</f>
-        <v>0.30916800000000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <f>Summary!F15</f>
+        <v>0.50137980000000015</v>
+      </c>
+      <c r="V2" s="3">
+        <f>784+864+400+648+196</f>
+        <v>2892</v>
+      </c>
+      <c r="W2" s="6">
+        <f>Summary!F56</f>
+        <v>1.298007824695895</v>
+      </c>
+      <c r="X2" s="6">
+        <f>Summary!G56</f>
+        <v>1.3855659087803036</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="6">
+        <f>Summary!F71</f>
+        <v>1.2645969199830274</v>
+      </c>
+      <c r="AC2" s="6">
+        <f>Summary!G71</f>
+        <v>1.3824678442674987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="6">
         <f>Summary!F9/2</f>
@@ -27891,19 +31680,19 @@
         <v>6.2980000000001368E-4</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="3">
-        <f>Summary!B7</f>
-        <v>600</v>
+        <f>Summary!B9</f>
+        <v>216</v>
       </c>
       <c r="L3" s="3">
-        <f>Summary!C7</f>
-        <v>1052</v>
+        <f>Summary!C9</f>
+        <v>380</v>
       </c>
       <c r="M3" s="6">
-        <f>Summary!F7</f>
-        <v>0.1592296</v>
+        <f>Summary!F9</f>
+        <v>0.15841139999999998</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>26</v>
@@ -27920,10 +31709,33 @@
         <f>Summary!F14</f>
         <v>0.43985040000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="V3" s="3">
+        <f>784+1176+576+968+324</f>
+        <v>3828</v>
+      </c>
+      <c r="W3" s="6">
+        <f>Summary!F55</f>
+        <v>1.288686336140652</v>
+      </c>
+      <c r="X3" s="6">
+        <f>Summary!G55</f>
+        <v>1.392906041383186</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="6">
+        <f>Summary!F70</f>
+        <v>1.2681586092623915</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>Summary!G70</f>
+        <v>1.3868551902055142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="6">
         <f>Summary!F13/3</f>
@@ -27969,24 +31781,47 @@
         <v>0.15845610000000002</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="3">
-        <f>Summary!B15</f>
-        <v>384</v>
+        <f>Summary!B13</f>
+        <v>864</v>
       </c>
       <c r="R4" s="3">
-        <f>Summary!C15</f>
-        <v>680</v>
+        <f>Summary!C13</f>
+        <v>1592</v>
       </c>
       <c r="S4" s="3">
-        <f>Summary!F15</f>
-        <v>0.50137980000000015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <f>Summary!F13</f>
+        <v>0.30916800000000011</v>
+      </c>
+      <c r="V4" s="3">
+        <f>784+1536+2704+1352+484</f>
+        <v>6860</v>
+      </c>
+      <c r="W4" s="6">
+        <f>Summary!F54</f>
+        <v>1.2654530070827132</v>
+      </c>
+      <c r="X4" s="6">
+        <f>Summary!G54</f>
+        <v>1.3779430135648592</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="6">
+        <f>Summary!F69</f>
+        <v>1.2650920286793603</v>
+      </c>
+      <c r="AC4" s="6">
+        <f>Summary!G69</f>
+        <v>1.3768313401564343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6">
         <f>Summary!F18/4</f>
@@ -28017,24 +31852,47 @@
         <v>2.3249999999985782E-4</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="3">
-        <f>Summary!B9</f>
-        <v>216</v>
+        <f>Summary!B7</f>
+        <v>600</v>
       </c>
       <c r="L5" s="3">
-        <f>Summary!C9</f>
-        <v>380</v>
+        <f>Summary!C7</f>
+        <v>1052</v>
       </c>
       <c r="M5" s="6">
-        <f>Summary!F9</f>
-        <v>0.15841139999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <f>Summary!F7</f>
+        <v>0.1592296</v>
+      </c>
+      <c r="V5" s="3">
+        <f>784+1944+3600+1800+676</f>
+        <v>8804</v>
+      </c>
+      <c r="W5" s="6">
+        <f>Summary!F53</f>
+        <v>1.2473080982631304</v>
+      </c>
+      <c r="X5" s="6">
+        <f>Summary!G53</f>
+        <v>1.3740924721819407</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="6">
+        <f>Summary!F68</f>
+        <v>1.2579245247608712</v>
+      </c>
+      <c r="AC5" s="6">
+        <f>Summary!G68</f>
+        <v>1.3672169048254155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6">
         <f>Summary!H39/2</f>
@@ -28065,22 +31923,200 @@
         <v>2.9449999999997534E-4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K6" s="3">
-        <f>Summary!B10</f>
-        <v>96</v>
+        <f>Summary!B6</f>
+        <v>864</v>
       </c>
       <c r="L6" s="3">
-        <f>Summary!C10</f>
-        <v>176</v>
+        <f>Summary!C6</f>
+        <v>1520</v>
       </c>
       <c r="M6" s="6">
-        <f>Summary!F10</f>
-        <v>0.19847020000000004</v>
+        <f>Summary!F6</f>
+        <v>0.17604820000000007</v>
+      </c>
+      <c r="V6" s="3">
+        <f>784+2400+4624+2312+900</f>
+        <v>11020</v>
+      </c>
+      <c r="W6" s="6">
+        <f>Summary!F52</f>
+        <v>1.2459081299808938</v>
+      </c>
+      <c r="X6" s="6">
+        <f>Summary!G52</f>
+        <v>1.3899659160878814</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="6">
+        <f>Summary!F67</f>
+        <v>1.2533641665680739</v>
+      </c>
+      <c r="AC6" s="6">
+        <f>Summary!G67</f>
+        <v>1.3560591178543775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="V7" s="3">
+        <f>784+2904+5776+2888+1156</f>
+        <v>13508</v>
+      </c>
+      <c r="W7" s="6">
+        <f>Summary!F51</f>
+        <v>1.2222483045029204</v>
+      </c>
+      <c r="X7" s="6">
+        <f>Summary!G51</f>
+        <v>1.3721919355940064</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="6">
+        <f>Summary!F66</f>
+        <v>1.263076258744279</v>
+      </c>
+      <c r="AC7" s="6">
+        <f>Summary!G66</f>
+        <v>1.3656299589887708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="V8" s="3">
+        <f>784+3456+7056+3528+1444</f>
+        <v>16268</v>
+      </c>
+      <c r="W8" s="6">
+        <f>Summary!F50</f>
+        <v>1.1881449254186229</v>
+      </c>
+      <c r="X8" s="6">
+        <f>Summary!G50</f>
+        <v>1.3320747634790151</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="6">
+        <f>Summary!F65</f>
+        <v>1.240945935236085</v>
+      </c>
+      <c r="AC8" s="6">
+        <f>Summary!G65</f>
+        <v>1.332908767319116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="V9" s="3">
+        <f>784+4056+8464+4232+1764</f>
+        <v>19300</v>
+      </c>
+      <c r="W9" s="6">
+        <f>Summary!F49</f>
+        <v>1.1531664163634929</v>
+      </c>
+      <c r="X9" s="6">
+        <f>Summary!G49</f>
+        <v>1.2859636967638808</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB9" s="6">
+        <f>Summary!F64</f>
+        <v>1.2559636129659724</v>
+      </c>
+      <c r="AC9" s="6">
+        <f>Summary!G64</f>
+        <v>1.3517615614682397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="V10" s="3">
+        <f>784+4704+10000+5000+2116</f>
+        <v>22604</v>
+      </c>
+      <c r="W10" s="6">
+        <f>Summary!F48</f>
+        <v>1.124596333703592</v>
+      </c>
+      <c r="X10" s="6">
+        <f>Summary!G48</f>
+        <v>1.2438978922469508</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="6">
+        <f>Summary!F63</f>
+        <v>1.2414227774356192</v>
+      </c>
+      <c r="AC10" s="6">
+        <f>Summary!G63</f>
+        <v>1.3296383813168362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="AA11" s="3">
+        <v>13</v>
+      </c>
+      <c r="AB11" s="6">
+        <f>Summary!F62</f>
+        <v>1.2522679312198608</v>
+      </c>
+      <c r="AC11" s="6">
+        <f>Summary!G62</f>
+        <v>1.3427620672362026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="AA12" s="3">
+        <v>14</v>
+      </c>
+      <c r="AB12" s="6">
+        <f>Summary!F61</f>
+        <v>1.2390191964395958</v>
+      </c>
+      <c r="AC12" s="6">
+        <f>Summary!G61</f>
+        <v>1.3227686144529762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="AA13" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="6">
+        <f>Summary!F60</f>
+        <v>1.0593490838190054</v>
+      </c>
+      <c r="AC13" s="6">
+        <f>Summary!G60</f>
+        <v>1.0753924742293273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="AA14" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="6">
+        <f>Summary!F59</f>
+        <v>1.0510473116514296</v>
+      </c>
+      <c r="AC14" s="6">
+        <f>Summary!G59</f>
+        <v>1.0637308378662755</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AA2:AC14">
+    <sortCondition ref="AA2:AA14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
